--- a/Stat reports/Reports/Templates/1-ис (инвестиции).xlsx
+++ b/Stat reports/Reports/Templates/1-ис (инвестиции).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Statistic report\Stat reports\Stat reports\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BAFE86-0266-41C6-BB4A-111AE4CE6474}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21924966-FDD3-4DB5-BC46-585463B33432}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
   </si>
   <si>
-    <t>Годовой отчет о вводе в эксплуатацию объектов, основных средств и использовании инвестиций в основной капитал  за  2024</t>
-  </si>
-  <si>
     <t>Представляют респонденты</t>
   </si>
   <si>
@@ -1154,6 +1151,9 @@
   <si>
     <t>(дата составления государственной
 статистической отчетности)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Годовой отчет о вводе в эксплуатацию объектов, основных средств и использовании инвестиций в основной капитал  за </t>
   </si>
 </sst>
 </file>
@@ -1614,20 +1614,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1677,6 +1677,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1686,9 +1689,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1767,20 +1767,20 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2098,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,40 +2139,40 @@
       <c r="M4" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2188,8 +2188,8 @@
       <c r="M9" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>4</v>
+      <c r="A11" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2197,75 +2197,75 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="14" t="s">
-        <v>5</v>
+      <c r="H11" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="14" t="s">
-        <v>6</v>
+      <c r="K11" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="11"/>
+      <c r="M12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="19" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>12</v>
+      <c r="A15" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2281,8 +2281,8 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>13</v>
+      <c r="A16" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2298,8 +2298,8 @@
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>14</v>
+      <c r="A17" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2315,8 +2315,8 @@
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>15</v>
+      <c r="A18" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2332,19 +2332,19 @@
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>16</v>
+      <c r="A19" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="14" t="s">
-        <v>17</v>
+      <c r="E19" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="14" t="s">
-        <v>18</v>
+      <c r="H19" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -2354,18 +2354,18 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
       <c r="H20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -2374,19 +2374,19 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>22</v>
+      <c r="A21" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="14" t="s">
-        <v>23</v>
+      <c r="E21" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="14" t="s">
-        <v>24</v>
+      <c r="H21" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -2396,12 +2396,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A6:M7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="A12:G14"/>
+    <mergeCell ref="H12:J14"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K14:M14"/>
     <mergeCell ref="A15:M15"/>
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="A17:M17"/>
@@ -2409,18 +2415,12 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:M19"/>
-    <mergeCell ref="A12:G14"/>
-    <mergeCell ref="H12:J14"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A6:M7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -2446,73 +2446,73 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+        <v>196</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+        <v>197</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+        <v>228</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2693,96 +2693,96 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+        <v>196</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+        <v>197</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+        <v>242</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2875,56 +2875,56 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+        <v>196</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+        <v>197</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+        <v>275</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
@@ -2932,79 +2932,79 @@
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>274</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3029,10 +3029,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3141,10 +3141,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3155,10 +3155,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3235,96 +3235,96 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+        <v>196</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+        <v>197</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+        <v>291</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3369,10 +3369,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3423,7 +3423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D9:D14"/>
     </sheetView>
   </sheetViews>
@@ -3436,217 +3436,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>305</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="16"/>
+        <v>305</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="F17" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="I17" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="C19" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="F17" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="I17" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="C19" s="68" t="s">
+      <c r="D19" s="10"/>
+      <c r="F19" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="F19" s="68" t="s">
+      <c r="G19" s="10"/>
+      <c r="I19" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="I19" s="68" t="s">
+      <c r="J19" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="E21" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="E23" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="E23" s="68" t="s">
-        <v>315</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="A24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:D18"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="A23:A24"/>
@@ -3656,11 +3661,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3687,101 +3687,101 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3823,73 +3823,73 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3919,10 +3919,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3941,10 +3941,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3952,10 +3952,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3963,10 +3963,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4004,48 +4004,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+        <v>119</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -4053,47 +4053,47 @@
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4114,10 +4114,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4150,10 +4150,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4210,10 +4210,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4222,10 +4222,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4234,10 +4234,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4246,10 +4246,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4294,10 +4294,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4318,10 +4318,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4330,10 +4330,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4342,10 +4342,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4354,10 +4354,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4409,73 +4409,73 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+        <v>119</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -4520,269 +4520,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="R5" s="16"/>
+      <c r="A5" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="13"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>161</v>
-      </c>
       <c r="E7" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
+        <v>156</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P9" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>25</v>
+      <c r="P9" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4803,10 +4803,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4827,10 +4827,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4851,11 +4851,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E7:R7"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A5:P5"/>
@@ -4872,6 +4867,11 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E7:R7"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -4898,98 +4898,98 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+        <v>119</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="16"/>
+        <v>121</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>170</v>
-      </c>
       <c r="E7" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4998,10 +4998,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5059,54 +5059,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+        <v>119</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+        <v>192</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="16"/>
+        <v>121</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
@@ -5116,59 +5116,59 @@
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5179,10 +5179,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5207,10 +5207,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5221,10 +5221,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5235,10 +5235,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5249,10 +5249,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5263,10 +5263,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5277,10 +5277,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5291,10 +5291,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5338,76 +5338,76 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+        <v>196</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+        <v>197</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+        <v>198</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
